--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2557.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2557.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.117356156216642</v>
+        <v>1.794476509094238</v>
       </c>
       <c r="B1">
-        <v>1.773530264348855</v>
+        <v>1.782221436500549</v>
       </c>
       <c r="C1">
-        <v>3.732390812991818</v>
+        <v>7.684327125549316</v>
       </c>
       <c r="D1">
-        <v>2.051385825469754</v>
+        <v>1.0156090259552</v>
       </c>
       <c r="E1">
-        <v>0.7991805502747604</v>
+        <v>0.4105211794376373</v>
       </c>
     </row>
   </sheetData>
